--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_milu_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_milu_1_1.xlsx
@@ -1436,7 +1436,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Firewatch"]  It's too bad—there is no “if.”
+    <t xml:space="preserve">[name="Firewatch"]  It's too bad—there is no 'if.'
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_milu_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_milu_1_1.xlsx
@@ -1240,7 +1240,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">04:50 PM \ Overcast
+    <t xml:space="preserve">04:50 P.M. \ Overcast
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_milu_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_milu_1_1.xlsx
@@ -1932,7 +1932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="카시미어 촌민"]  어, 어쩌면 이미 여기를 지나 더 남쪽으로 갔을지도 모르지. 거기에는 식량도 더 많이 있고 물도 더 깨끗하고 더 큰 마을이 있으니까…….
+    <t xml:space="preserve">[name="카시미어 촌민"]  어, 어쩌면 이미 여기를 지나 더 남쪽으로 갔을지도 모르지. 거기에는 식량도 더 많이 있고 물도 더 깨끗하고 더 큰 마을이 있으니까……
 </t>
   </si>
   <si>
@@ -1980,7 +1980,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="파이어워치"]  이 사람들은……. 그때와 아주 닮았어……
+    <t xml:space="preserve">[name="파이어워치"]  이 사람들은…… 그때와 아주 닮았어……
 </t>
   </si>
   <si>
